--- a/平成31年度/栃尾近郷ミニバスケットボール大会/チーム担当者連絡先.xlsx
+++ b/平成31年度/栃尾近郷ミニバスケットボール大会/チーム担当者連絡先.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\栃尾近郷ミニバスケットボール大会\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AF7FB8-2720-4729-8E68-8C07A9C30AE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12375"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="連絡先一覧" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>正式チーム名</t>
     <rPh sb="0" eb="2">
@@ -132,13 +133,17 @@
   </si>
   <si>
     <t>川崎東</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kawasaki.east.minibas.boys@gmail.com</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +344,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +413,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -503,6 +511,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -538,6 +563,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -713,26 +755,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -744,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20">
         <v>1</v>
       </c>
@@ -756,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21">
         <v>2</v>
       </c>
@@ -768,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -780,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21">
         <v>4</v>
       </c>
@@ -792,7 +834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="21">
         <v>5</v>
       </c>
@@ -806,7 +848,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21">
         <v>6</v>
       </c>
@@ -814,9 +856,11 @@
         <v>19</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21">
         <v>7</v>
       </c>
@@ -830,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="22">
         <v>8</v>
       </c>
@@ -845,18 +889,19 @@
       <c r="G11" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="C4:E14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:E14">
     <sortCondition ref="C4:C14"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{34AD374B-004E-4F4F-AFE7-8739D3CD7CC0}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId7"/>
 </worksheet>
 </file>